--- a/src/attributions/attributions_saliency_traj_367.xlsx
+++ b/src/attributions/attributions_saliency_traj_367.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002063479769276455</v>
+        <v>1.904377100458987e-08</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001776769931893796</v>
+        <v>7.552772984809053e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>1.107327898353105e-05</v>
+        <v>2.848277702582891e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>9.253228199668229e-05</v>
+        <v>4.961992772223311e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005503160646185279</v>
+        <v>2.471826521244225e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004553041944745928</v>
+        <v>2.728510750671376e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0005189996445551515</v>
+        <v>3.247741631184908e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>2.381855301791802e-05</v>
+        <v>9.811602197373759e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>4.253230144968256e-05</v>
+        <v>1.586093034688929e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002419687225483358</v>
+        <v>3.643025081601081e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002296028687851503</v>
+        <v>7.317182593169491e-08</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001814360148273408</v>
+        <v>1.809082306181153e-08</v>
       </c>
       <c r="M2" t="n">
-        <v>1.554911432322115e-05</v>
+        <v>7.103867005753273e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003618213522713631</v>
+        <v>4.450666502009426e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004134514019824564</v>
+        <v>6.16539423958784e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>0.000360465346602723</v>
+        <v>2.371557616953623e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.859715697122738e-05</v>
+        <v>3.253741454045667e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>5.704776413040236e-05</v>
+        <v>1.877942779060504e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001204155123559758</v>
+        <v>1.018967310528751e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>2.822732676577289e-05</v>
+        <v>2.059685932920274e-08</v>
       </c>
       <c r="U2" t="n">
-        <v>8.593504753662273e-05</v>
+        <v>5.270742953200624e-09</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002901933912653476</v>
+        <v>3.704042406127428e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0001357271248707548</v>
+        <v>2.094343898306761e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>3.499573358567432e-05</v>
+        <v>2.327481674058163e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001477664627600461</v>
+        <v>1.994930798332462e-08</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.936561552109197e-05</v>
+        <v>1.349287970242585e-08</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001836338633438572</v>
+        <v>9.496657682461773e-09</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.862704761559144e-05</v>
+        <v>2.825070311018862e-08</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.31200046982849e-05</v>
+        <v>5.853664220012433e-09</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.984012750559486e-05</v>
+        <v>1.726602150142753e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.329174645245075e-06</v>
+        <v>2.019969436162228e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.0835420046933e-05</v>
+        <v>2.43955859957623e-08</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.688895468367264e-05</v>
+        <v>1.048934716862959e-08</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0001084222676581703</v>
+        <v>6.412191666527178e-09</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.83183638000628e-05</v>
+        <v>6.559106591197406e-09</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0001114813567255624</v>
+        <v>9.503214215556e-09</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.373519782850053e-05</v>
+        <v>1.254416126528213e-08</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0001258586125914007</v>
+        <v>4.663423425199653e-08</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0001762015017447993</v>
+        <v>7.43985317797069e-09</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.870368760137353e-05</v>
+        <v>2.050964731381555e-08</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.661083635757677e-05</v>
+        <v>3.566825945711116e-09</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.464596036588773e-05</v>
+        <v>2.619892081057174e-09</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4.111557427677326e-05</v>
+        <v>2.431117973600294e-09</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0001066684490069747</v>
+        <v>8.738621382065048e-09</v>
       </c>
       <c r="AS2" t="n">
-        <v>9.62358717515599e-06</v>
+        <v>1.329991761167548e-08</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.435984348878264e-05</v>
+        <v>2.374230589907711e-08</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.54159422183875e-05</v>
+        <v>3.230719869407039e-08</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001496238255640492</v>
+        <v>9.919826737814219e-09</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.040149673935957e-05</v>
+        <v>1.423115136844899e-08</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000237527143326588</v>
+        <v>2.400432386195916e-08</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.604790254030377e-05</v>
+        <v>1.381158476476685e-08</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.853852781001478e-05</v>
+        <v>1.377148173276055e-09</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0001217891258420423</v>
+        <v>4.989990642911835e-09</v>
       </c>
       <c r="BB2" t="n">
-        <v>9.922527533490211e-05</v>
+        <v>1.606852606528264e-08</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0001512005983386189</v>
+        <v>4.569540745791301e-09</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0001231885253218934</v>
+        <v>3.260394620951956e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>3.372783248778433e-05</v>
+        <v>2.32752572770778e-08</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.242210393887945e-05</v>
+        <v>3.25055502514715e-08</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0001238260883837938</v>
+        <v>1.765354973315425e-08</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.000215040665352717</v>
+        <v>1.375766256472843e-08</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0003303925623185933</v>
+        <v>1.215346046024024e-08</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.443693665554747e-05</v>
+        <v>6.848408506954229e-09</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0001429879339411855</v>
+        <v>1.633364732356313e-08</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.204064028570428e-05</v>
+        <v>5.005002634561606e-08</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.122777393902652e-05</v>
+        <v>5.375525446993379e-08</v>
       </c>
       <c r="BN2" t="n">
-        <v>4.225171869620681e-05</v>
+        <v>3.441044671426141e-10</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.276349500287324e-06</v>
+        <v>5.723986618022536e-09</v>
       </c>
       <c r="BP2" t="n">
-        <v>7.432459824485704e-05</v>
+        <v>2.565616386007719e-09</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.131174576585181e-05</v>
+        <v>1.795095849743689e-09</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0001679301203694195</v>
+        <v>3.09677261611796e-09</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0001002401986625046</v>
+        <v>7.686238312487603e-09</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.078176294162404e-06</v>
+        <v>8.529646322585904e-09</v>
       </c>
       <c r="BU2" t="n">
-        <v>4.360415914561599e-06</v>
+        <v>2.169519319750179e-08</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001564268895890564</v>
+        <v>1.930139781336493e-08</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.406956446066033e-05</v>
+        <v>8.283444152823449e-09</v>
       </c>
       <c r="BX2" t="n">
-        <v>8.483400597469881e-05</v>
+        <v>3.46714518206781e-10</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0002588544157333672</v>
+        <v>2.667708187686912e-08</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001830933761084452</v>
+        <v>7.923422806754843e-09</v>
       </c>
       <c r="CA2" t="n">
-        <v>4.049510607728735e-06</v>
+        <v>7.257971557095289e-09</v>
       </c>
       <c r="CB2" t="n">
-        <v>3.905491030309349e-05</v>
+        <v>3.474043497320167e-09</v>
       </c>
       <c r="CC2" t="n">
-        <v>5.362817319110036e-05</v>
+        <v>9.028544134537242e-09</v>
       </c>
       <c r="CD2" t="n">
-        <v>5.562852675211616e-05</v>
+        <v>2.329057302574711e-08</v>
       </c>
       <c r="CE2" t="n">
-        <v>4.874584556091577e-05</v>
+        <v>7.308002203387787e-09</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.301139804534614e-05</v>
+        <v>1.63722657653409e-09</v>
       </c>
       <c r="CG2" t="n">
-        <v>5.978378976578824e-05</v>
+        <v>2.132135534793633e-08</v>
       </c>
       <c r="CH2" t="n">
-        <v>6.744376150891185e-05</v>
+        <v>1.169906660436482e-08</v>
       </c>
       <c r="CI2" t="n">
-        <v>6.41799924778752e-05</v>
+        <v>1.029484764103472e-08</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0001202936837216839</v>
+        <v>2.012632505099532e-09</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.897465517686214e-05</v>
+        <v>6.701687205179496e-09</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.175541092379717e-05</v>
+        <v>3.077396559802992e-09</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.053531589917839e-07</v>
+        <v>7.846514549214589e-09</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.142388282460161e-05</v>
+        <v>3.517699020960663e-09</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.661057366523892e-05</v>
+        <v>8.591509725874857e-09</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.956509368028492e-05</v>
+        <v>1.936710170014067e-08</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.508509325911291e-05</v>
+        <v>6.079208247911083e-09</v>
       </c>
       <c r="CR2" t="n">
-        <v>7.331107190111652e-05</v>
+        <v>7.295971382603739e-09</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.054484866675921e-06</v>
+        <v>2.126133047397616e-08</v>
       </c>
       <c r="CT2" t="n">
-        <v>3.371455386513844e-05</v>
+        <v>2.981968094672993e-08</v>
       </c>
       <c r="CU2" t="n">
-        <v>3.493102121865377e-05</v>
+        <v>3.56588607530739e-08</v>
       </c>
       <c r="CV2" t="n">
-        <v>4.916637408314273e-05</v>
+        <v>2.235871576772297e-08</v>
       </c>
       <c r="CW2" t="n">
-        <v>6.595985178137198e-05</v>
+        <v>8.805933759958862e-09</v>
       </c>
       <c r="CX2" t="n">
-        <v>4.394183997646905e-05</v>
+        <v>2.675029975307552e-09</v>
       </c>
       <c r="CY2" t="n">
-        <v>6.156456947792321e-05</v>
+        <v>1.288430961920994e-08</v>
       </c>
       <c r="CZ2" t="n">
-        <v>7.965727854752913e-05</v>
+        <v>4.09108924515067e-09</v>
       </c>
       <c r="DA2" t="n">
-        <v>6.811924686189741e-05</v>
+        <v>1.20714132023636e-08</v>
       </c>
       <c r="DB2" t="n">
-        <v>8.499445539200678e-05</v>
+        <v>7.359286513519692e-10</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.715432128752582e-05</v>
+        <v>8.647190519184278e-09</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.957123383064754e-05</v>
+        <v>1.349382272586297e-09</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.277096791658551e-05</v>
+        <v>4.280240162302107e-09</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.0001247005420736969</v>
+        <v>4.987328239280941e-08</v>
       </c>
       <c r="DG2" t="n">
-        <v>3.66483218385838e-05</v>
+        <v>1.750808920064628e-08</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0001393128477502614</v>
+        <v>1.695792661848827e-08</v>
       </c>
       <c r="DI2" t="n">
-        <v>4.510843791649677e-05</v>
+        <v>2.193471715372652e-08</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.931029929546639e-05</v>
+        <v>2.95179667375578e-08</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0001757499412633479</v>
+        <v>3.88949565888197e-08</v>
       </c>
       <c r="DL2" t="n">
-        <v>1.087888267647941e-05</v>
+        <v>6.814310449243521e-09</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0001030582498060539</v>
+        <v>4.234071582231991e-08</v>
       </c>
       <c r="DN2" t="n">
-        <v>9.932996181305498e-05</v>
+        <v>2.040456337226715e-08</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.850984856195282e-06</v>
+        <v>2.08190176209655e-08</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0001225256710313261</v>
+        <v>4.341185544376458e-08</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001712133234832436</v>
+        <v>4.450545532108663e-08</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001296012924285606</v>
+        <v>1.535041960210037e-08</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.747517308103852e-05</v>
+        <v>1.123609205677667e-09</v>
       </c>
       <c r="DT2" t="n">
-        <v>7.054175512166694e-05</v>
+        <v>3.628482625472884e-09</v>
       </c>
       <c r="DU2" t="n">
-        <v>3.680292502394877e-05</v>
+        <v>3.391813940822885e-09</v>
       </c>
       <c r="DV2" t="n">
-        <v>6.708379078190774e-05</v>
+        <v>9.77478453734193e-09</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.781268787861336e-06</v>
+        <v>2.390706654864516e-08</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.089769259328023e-05</v>
+        <v>1.841534036373105e-08</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.225095861125737e-05</v>
+        <v>1.535584637224474e-08</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.000102284160675481</v>
+        <v>1.289459916620217e-08</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0001186625740956515</v>
+        <v>3.614809784835415e-09</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.638400863157585e-05</v>
+        <v>3.060115005837361e-08</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0001654967782087624</v>
+        <v>6.423527043608601e-09</v>
       </c>
       <c r="ED2" t="n">
-        <v>5.385086296882946e-06</v>
+        <v>2.950504374155116e-08</v>
       </c>
       <c r="EE2" t="n">
-        <v>5.075415901956148e-05</v>
+        <v>1.234703184138652e-08</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0001574745547259226</v>
+        <v>5.401525893233838e-10</v>
       </c>
       <c r="EG2" t="n">
-        <v>6.541589755215682e-06</v>
+        <v>1.082705036736797e-08</v>
       </c>
       <c r="EH2" t="n">
-        <v>3.617358379415236e-05</v>
+        <v>1.255467507732533e-09</v>
       </c>
       <c r="EI2" t="n">
-        <v>7.695375825278461e-05</v>
+        <v>3.795019409835731e-08</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001531274756416678</v>
+        <v>1.028824136994899e-08</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001264132588403299</v>
+        <v>1.88755198138324e-08</v>
       </c>
       <c r="EL2" t="n">
-        <v>2.177115857193712e-05</v>
+        <v>4.10791223259821e-09</v>
       </c>
       <c r="EM2" t="n">
-        <v>1.45200829138048e-05</v>
+        <v>1.62756759181093e-08</v>
       </c>
       <c r="EN2" t="n">
-        <v>6.712968024658039e-05</v>
+        <v>2.33600983001736e-09</v>
       </c>
       <c r="EO2" t="n">
-        <v>6.706308340653777e-05</v>
+        <v>3.027555450785258e-08</v>
       </c>
       <c r="EP2" t="n">
-        <v>9.048020729096606e-05</v>
+        <v>9.964396419093191e-09</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.656190529000014e-06</v>
+        <v>3.205072474088411e-08</v>
       </c>
       <c r="ER2" t="n">
-        <v>6.08427326369565e-05</v>
+        <v>5.066729258373925e-10</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.010675077850465e-06</v>
+        <v>9.540233492089101e-09</v>
       </c>
       <c r="ET2" t="n">
-        <v>5.067500387667678e-05</v>
+        <v>2.401639953575341e-08</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001447292452212423</v>
+        <v>6.250147066566569e-10</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.674928146007005e-05</v>
+        <v>1.748509248500341e-08</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0001126947900047526</v>
+        <v>8.909320392547215e-09</v>
       </c>
       <c r="EX2" t="n">
-        <v>2.379090437898412e-05</v>
+        <v>2.708626567482497e-08</v>
       </c>
       <c r="EY2" t="n">
-        <v>7.392631960101426e-05</v>
+        <v>9.125456834624401e-09</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3.330950130475685e-05</v>
+        <v>2.641656893231925e-09</v>
       </c>
       <c r="FA2" t="n">
-        <v>4.091507435077801e-05</v>
+        <v>1.871045185453113e-08</v>
       </c>
       <c r="FB2" t="n">
-        <v>7.54252469050698e-05</v>
+        <v>8.047747357409207e-09</v>
       </c>
       <c r="FC2" t="n">
-        <v>6.424759340006858e-05</v>
+        <v>6.081609882357952e-09</v>
       </c>
       <c r="FD2" t="n">
-        <v>6.857710832264274e-05</v>
+        <v>1.353082312860465e-09</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.062298492295668e-05</v>
+        <v>4.445289469856561e-09</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.953787614183966e-05</v>
+        <v>1.918739167550143e-09</v>
       </c>
       <c r="FG2" t="n">
-        <v>3.265048144385219e-05</v>
+        <v>2.398433451844539e-09</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.972794992383569e-05</v>
+        <v>3.433276773989746e-08</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0001098976426874287</v>
+        <v>4.019761412621392e-09</v>
       </c>
       <c r="FJ2" t="n">
-        <v>9.697763016447425e-05</v>
+        <v>2.327694836878891e-08</v>
       </c>
       <c r="FK2" t="n">
-        <v>6.218941416591406e-05</v>
+        <v>1.028437246475278e-08</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.90409861918306e-05</v>
+        <v>1.219279610609192e-08</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.040919935097918e-05</v>
+        <v>3.332561337998641e-09</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.344112752121873e-05</v>
+        <v>1.457145426542183e-08</v>
       </c>
       <c r="FO2" t="n">
-        <v>6.560811016242951e-05</v>
+        <v>4.827230171144947e-09</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.15103427763097e-05</v>
+        <v>5.783549283933098e-08</v>
       </c>
       <c r="FQ2" t="n">
-        <v>2.283786488987971e-05</v>
+        <v>3.313007113092681e-08</v>
       </c>
       <c r="FR2" t="n">
-        <v>6.141873018350452e-05</v>
+        <v>2.973607582390514e-09</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.000257060572039336</v>
+        <v>1.936955262848983e-09</v>
       </c>
       <c r="FT2" t="n">
-        <v>3.326625665067695e-05</v>
+        <v>6.407949726394691e-09</v>
       </c>
       <c r="FU2" t="n">
-        <v>2.954015144496225e-05</v>
+        <v>1.951969252900199e-08</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.000283120054518804</v>
+        <v>7.057354878270417e-08</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.2975672588218e-05</v>
+        <v>4.421366028850571e-08</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001311850792262703</v>
+        <v>4.23669277438421e-09</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0001254200615221635</v>
+        <v>4.739078818261078e-08</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0001227079046657309</v>
+        <v>1.829560281052522e-09</v>
       </c>
       <c r="GA2" t="n">
-        <v>4.994824485038407e-05</v>
+        <v>5.115255774512661e-08</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001147601287811995</v>
+        <v>2.982341040791425e-09</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.243238602910424e-05</v>
+        <v>2.697264278594957e-08</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0002061703562503681</v>
+        <v>2.915354713195484e-08</v>
       </c>
       <c r="GE2" t="n">
-        <v>3.032342647202313e-05</v>
+        <v>3.382168856091994e-08</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0001906472025439143</v>
+        <v>1.601830668107596e-08</v>
       </c>
       <c r="GG2" t="n">
-        <v>4.916439866065048e-05</v>
+        <v>2.388926034768701e-08</v>
       </c>
     </row>
     <row r="3">
